--- a/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>11,52%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,3; 14,85</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 7,75</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 15,13</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 19,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,91; 9,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 31,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 12,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,19; 8,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,15; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,11; 1,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 21,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,02; 17,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,05; 5,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,05; 2,0</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,03; 2,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 16,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 10,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 13,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,96; 4,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,11; 26,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 14,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 31,18</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 5,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 12,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 18,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 9,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 7,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 20,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 41,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,37; 32,23</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 13,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,24; 25,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 6,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,59; 4,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 17,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,04; 50,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,69; 6,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 5,31</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 9,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,95; 19,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 8,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,99; 7,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,4; 14,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,12; 32,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,23; 10,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 19,21</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 1,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,47; 15,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 7,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 5,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,83; 2,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 25,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 9,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,47; 9,03</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,49%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,32; 8,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 1,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 4,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 23,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 10,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 1,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 4,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,45; 35,44</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 8,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 4,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 4,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,77</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 12,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 5,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 8,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>13,02%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 14,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 15,13</t>
+          <t>-0,35; 16,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 19,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 31,17</t>
+          <t>-0,54; 34,83</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,84</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,19%</t>
+          <t>-8,88%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 1,22</t>
+          <t>-12,1; 1,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 2,0</t>
+          <t>-18,23; 2,86</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 13,86</t>
+          <t>-0,43; 14,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 31,18</t>
+          <t>-0,92; 32,24</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>-14,18%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 12,73</t>
+          <t>1,33; 16,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 9,02</t>
+          <t>-19,96; 4,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,37; 20,71</t>
+          <t>2,41; 32,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 32,23</t>
+          <t>-50,95; 14,8</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>-0,55%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,79</t>
+          <t>-5,28; 4,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,31</t>
+          <t>-5,59; 5,23</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 7,22</t>
+          <t>-6,66; 7,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 19,21</t>
+          <t>-15,09; 20,42</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,4%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,68</t>
+          <t>-5,09; 5,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 9,03</t>
+          <t>-7,45; 9,4</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>25,11</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>39,86%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 23,11</t>
+          <t>1,34; 57,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,45; 35,44</t>
+          <t>1,59; 189,48</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 4,97</t>
+          <t>-2,13; 16,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 8,13</t>
+          <t>-3,28; 33,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 14,85</t>
+          <t>3,6; 15,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 14,29</t>
+          <t>-0,06; 13,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 7,75</t>
+          <t>-5,06; 6,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 16,15</t>
+          <t>-1,6; 15,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 19,3</t>
+          <t>4,34; 19,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 19,05</t>
+          <t>-0,03; 17,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 9,48</t>
+          <t>-5,78; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 34,83</t>
+          <t>-2,65; 32,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,76; 12,86</t>
+          <t>0,61; 13,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 8,96</t>
+          <t>-4,91; 8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 4,3</t>
+          <t>-5,68; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 1,68</t>
+          <t>-12,31; 1,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 21,71</t>
+          <t>1,3; 22,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 17,26</t>
+          <t>-8,33; 15,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 5,26</t>
+          <t>-6,65; 5,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,23; 2,86</t>
+          <t>-18,19; 2,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 2,79</t>
+          <t>-12,85; 2,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 16,71</t>
+          <t>3,63; 17,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 10,51</t>
+          <t>-1,85; 9,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 14,23</t>
+          <t>-0,22; 14,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 4,83</t>
+          <t>-19,01; 4,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 26,56</t>
+          <t>5,07; 28,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 14,05</t>
+          <t>-2,28; 13,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 32,24</t>
+          <t>-0,33; 32,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,36</t>
+          <t>-7,09; 5,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 16,1</t>
+          <t>1,93; 15,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 18,19</t>
+          <t>3,28; 17,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 4,8</t>
+          <t>-18,39; 6,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 7,81</t>
+          <t>-9,37; 8,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 32,52</t>
+          <t>3,44; 32,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 41,69</t>
+          <t>6,04; 39,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,95; 14,8</t>
+          <t>-48,45; 21,77</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 13,22</t>
+          <t>-1,17; 12,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,24; 25,62</t>
+          <t>7,68; 26,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 6,13</t>
+          <t>-4,98; 5,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 4,65</t>
+          <t>-5,05; 4,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 17,56</t>
+          <t>-1,3; 16,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,04; 50,9</t>
+          <t>12,17; 50,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 6,95</t>
+          <t>-5,34; 6,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 5,23</t>
+          <t>-5,29; 5,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 9,76</t>
+          <t>-5,22; 10,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,95; 19,57</t>
+          <t>4,61; 20,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 8,15</t>
+          <t>-4,97; 8,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 7,53</t>
+          <t>-7,16; 7,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 14,32</t>
+          <t>-6,98; 14,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 32,41</t>
+          <t>6,92; 33,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 10,68</t>
+          <t>-6,12; 11,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 20,42</t>
+          <t>-15,99; 20,42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 1,27</t>
+          <t>-9,83; 1,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,08</t>
+          <t>4,34; 14,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,49</t>
+          <t>-0,56; 7,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 5,98</t>
+          <t>-6,0; 6,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,83; 2,38</t>
+          <t>-17,4; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 25,49</t>
+          <t>6,72; 25,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,05</t>
+          <t>-0,6; 8,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 9,4</t>
+          <t>-8,67; 9,78</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,31</t>
+          <t>1,9; 8,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,76</t>
+          <t>-4,64; 1,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 4,16</t>
+          <t>-0,36; 4,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 57,89</t>
+          <t>1,29; 61,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,54; 10,1</t>
+          <t>2,36; 10,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,95</t>
+          <t>-4,98; 1,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 4,52</t>
+          <t>-0,36; 4,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,59; 189,48</t>
+          <t>1,49; 234,16</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,0</t>
+          <t>-0,28; 4,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,67</t>
+          <t>4,08; 8,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,74</t>
+          <t>0,79; 4,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 16,14</t>
+          <t>-1,82; 17,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,77</t>
+          <t>-0,38; 5,87</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,86</t>
+          <t>5,85; 12,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,88</t>
+          <t>0,98; 5,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 33,53</t>
+          <t>-2,89; 39,57</t>
         </is>
       </c>
     </row>
